--- a/Pricing Logic/manual/treasure_hunt_61_chunk_1.xlsx
+++ b/Pricing Logic/manual/treasure_hunt_61_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,278 +444,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>12719</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>12718</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>12717</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>12716</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>12715</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>12714</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>12713</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>12712</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>12711</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>12710</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>12709</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>12708</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>12706</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>0.01</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>12705</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>0.01</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>12704</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>0.01</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>12703</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>0.01</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
